--- a/en/downloads/data-excel/15.b.1.1.xlsx
+++ b/en/downloads/data-excel/15.b.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>борьбу с загрязнением окружающей среды</t>
   </si>
@@ -183,6 +183,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -392,6 +395,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -690,7 +696,7 @@
     <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -705,7 +711,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -717,7 +723,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -725,7 +731,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
@@ -765,8 +771,11 @@
       <c r="M4" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>33</v>
       </c>
@@ -806,8 +815,11 @@
       <c r="M5" s="5">
         <v>798.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="5">
+        <v>588.70000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
@@ -847,8 +859,11 @@
       <c r="M6" s="9">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="9">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -888,8 +903,11 @@
       <c r="M7" s="9">
         <v>136.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="9">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -929,8 +947,11 @@
       <c r="M8" s="9">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
@@ -966,8 +987,11 @@
       <c r="M9" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1007,8 +1031,11 @@
       <c r="M10" s="9">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -1048,8 +1075,11 @@
       <c r="M11" s="9">
         <v>169.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="N11" s="9">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1089,8 +1119,11 @@
       <c r="M12" s="9">
         <v>131.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="9">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -1130,8 +1163,11 @@
       <c r="M13" s="9">
         <v>197.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="9">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -1171,8 +1207,11 @@
       <c r="M14" s="9">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -1212,8 +1251,11 @@
       <c r="M15" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -1252,6 +1294,9 @@
       </c>
       <c r="M16" s="12">
         <v>12.2</v>
+      </c>
+      <c r="N16" s="12">
+        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">

--- a/en/downloads/data-excel/15.b.1.1.xlsx
+++ b/en/downloads/data-excel/15.b.1.1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>борьбу с загрязнением окружающей среды</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>айлана-чөйрөнү коргоо боюнча башка кызмат көрсөтүүлөр</t>
+  </si>
+  <si>
+    <t>(млн.сом)</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -712,6 +715,9 @@
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>

--- a/en/downloads/data-excel/15.b.1.1.xlsx
+++ b/en/downloads/data-excel/15.b.1.1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>борьбу с загрязнением окружающей среды</t>
   </si>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -402,6 +402,15 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -686,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -699,7 +708,7 @@
     <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -714,7 +723,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>46</v>
       </c>
@@ -729,7 +738,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -737,7 +746,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
@@ -780,8 +789,11 @@
       <c r="N4" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>33</v>
       </c>
@@ -824,8 +836,11 @@
       <c r="N5" s="5">
         <v>588.70000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="27">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
@@ -868,8 +883,11 @@
       <c r="N6" s="9">
         <v>62.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="26">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -912,8 +930,11 @@
       <c r="N7" s="9">
         <v>99.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="26">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -956,8 +977,11 @@
       <c r="N8" s="9">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="26">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
@@ -996,8 +1020,11 @@
       <c r="N9" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1040,8 +1067,11 @@
       <c r="N10" s="26">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="26">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -1084,8 +1114,11 @@
       <c r="N11" s="9">
         <v>136.30000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="O11" s="26">
+        <v>145.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1128,8 +1161,11 @@
       <c r="N12" s="9">
         <v>103.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="26">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -1172,8 +1208,11 @@
       <c r="N13" s="9">
         <v>103.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="26">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -1216,8 +1255,11 @@
       <c r="N14" s="9">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="26">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -1260,8 +1302,11 @@
       <c r="N15" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -1303,6 +1348,9 @@
       </c>
       <c r="N16" s="12">
         <v>5.4</v>
+      </c>
+      <c r="O16" s="29">
+        <v>10.9</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">

--- a/en/downloads/data-excel/15.b.1.1.xlsx
+++ b/en/downloads/data-excel/15.b.1.1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>борьбу с загрязнением окружающей среды</t>
   </si>
@@ -186,8 +186,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -323,7 +324,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -411,6 +412,15 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -695,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -708,7 +718,7 @@
     <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -723,7 +733,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>46</v>
       </c>
@@ -738,7 +748,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -746,7 +756,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
@@ -792,8 +802,11 @@
       <c r="O4" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>33</v>
       </c>
@@ -839,8 +852,11 @@
       <c r="O5" s="27">
         <v>689</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="30">
+        <v>1188.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
@@ -886,8 +902,11 @@
       <c r="O6" s="26">
         <v>94.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="31">
+        <v>263.89999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -933,8 +952,11 @@
       <c r="O7" s="26">
         <v>147.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="31">
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="O8" s="26">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="31">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
@@ -1023,8 +1048,11 @@
       <c r="O9" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1070,8 +1098,11 @@
       <c r="O10" s="26">
         <v>82.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -1117,8 +1148,11 @@
       <c r="O11" s="26">
         <v>145.30000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="P11" s="31">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1164,8 +1198,11 @@
       <c r="O12" s="26">
         <v>98.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="31">
+        <v>220.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -1211,8 +1248,11 @@
       <c r="O13" s="26">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="31">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
@@ -1258,8 +1298,11 @@
       <c r="O14" s="26">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="31">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -1305,8 +1348,11 @@
       <c r="O15" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -1351,6 +1397,9 @@
       </c>
       <c r="O16" s="29">
         <v>10.9</v>
+      </c>
+      <c r="P16" s="32">
+        <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">

--- a/en/downloads/data-excel/15.b.1.1.xlsx
+++ b/en/downloads/data-excel/15.b.1.1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>борьбу с загрязнением окружающей среды</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Items</t>
   </si>
   <si>
-    <t>15.b.1.1 Айлана-чөйрөнү коргоо үчүн бөлүнгөн мамлекеттик акча каражаттарынын көлөмү (токойлор)</t>
-  </si>
-  <si>
     <t>(million soms)</t>
   </si>
   <si>
@@ -180,15 +177,17 @@
   </si>
   <si>
     <t>(млн.сом)</t>
+  </si>
+  <si>
+    <t>15.b.1.1 Айлана-чөйрөнү коргоо үчүн бөлүнгөн мамлекеттик акча каражаттарынын көлөмү</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -324,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -412,15 +411,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -705,11 +695,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -718,9 +706,9 @@
     <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>25</v>
@@ -733,22 +721,22 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>31</v>
+      <c r="C2" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -756,7 +744,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
@@ -805,16 +793,19 @@
       <c r="P4" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="3">
         <v>576.9</v>
@@ -852,13 +843,16 @@
       <c r="O5" s="27">
         <v>689</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="27">
         <v>1188.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="27">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>0</v>
@@ -902,13 +896,16 @@
       <c r="O6" s="26">
         <v>94.1</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="26">
         <v>263.89999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="26">
+        <v>409.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>1</v>
@@ -952,13 +949,16 @@
       <c r="O7" s="26">
         <v>147.1</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="26">
         <v>263.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="26">
+        <v>435.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -1002,13 +1002,16 @@
       <c r="O8" s="26">
         <v>10.1</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="26">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="26">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -1048,13 +1051,16 @@
       <c r="O9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4</v>
@@ -1098,13 +1104,16 @@
       <c r="O10" s="26">
         <v>82.1</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="26">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="26">
+        <v>194.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>5</v>
@@ -1148,13 +1157,16 @@
       <c r="O11" s="26">
         <v>145.30000000000001</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="26">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="Q11" s="26">
+        <v>265.10000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -1198,13 +1210,16 @@
       <c r="O12" s="26">
         <v>98.8</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="26">
         <v>220.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="26">
+        <v>193.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1248,13 +1263,16 @@
       <c r="O13" s="26">
         <v>98.7</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="26">
         <v>159.30000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="26">
+        <v>251.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
@@ -1298,13 +1316,16 @@
       <c r="O14" s="26">
         <v>1.8</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="26">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="26">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>17</v>
@@ -1348,13 +1369,16 @@
       <c r="O15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>7</v>
@@ -1398,8 +1422,11 @@
       <c r="O16" s="29">
         <v>10.9</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="29">
         <v>3.1</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
